--- a/Book/Thesis/数据处理.xlsx
+++ b/Book/Thesis/数据处理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\22GDproject\Book\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4968077-9737-453D-85C2-0D921E1538F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28859E00-9287-42ED-89E9-0D5C326ABDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26280" yWindow="-3930" windowWidth="21600" windowHeight="11295" xr2:uid="{587B6099-F4B4-44EB-8C07-549C37201833}"/>
+    <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{587B6099-F4B4-44EB-8C07-549C37201833}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7058C06F-E2A3-4AF3-897B-9BDCE7CC4FDB}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,55 +1191,55 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f>5000/150*B20</f>
+        <f t="shared" ref="B23:N23" si="8">5000/150*B20</f>
         <v>0</v>
       </c>
       <c r="C23">
-        <f>5000/150*C20</f>
+        <f t="shared" si="8"/>
         <v>46.666666666666664</v>
       </c>
       <c r="D23">
-        <f>5000/150*D20</f>
+        <f t="shared" si="8"/>
         <v>106.66666666666669</v>
       </c>
       <c r="E23">
-        <f>5000/150*E20</f>
+        <f t="shared" si="8"/>
         <v>216.66666666666669</v>
       </c>
       <c r="F23">
-        <f>5000/150*F20</f>
+        <f t="shared" si="8"/>
         <v>263.33333333333337</v>
       </c>
       <c r="G23">
-        <f>5000/150*G20</f>
+        <f t="shared" si="8"/>
         <v>306.66666666666669</v>
       </c>
       <c r="H23">
-        <f>5000/150*H20</f>
+        <f t="shared" si="8"/>
         <v>346.66666666666669</v>
       </c>
       <c r="I23">
-        <f>5000/150*I20</f>
+        <f t="shared" si="8"/>
         <v>420</v>
       </c>
       <c r="J23">
-        <f>5000/150*J20</f>
+        <f t="shared" si="8"/>
         <v>516.66666666666674</v>
       </c>
       <c r="K23">
-        <f>5000/150*K20</f>
+        <f t="shared" si="8"/>
         <v>553.33333333333337</v>
       </c>
       <c r="L23">
-        <f>5000/150*L20</f>
+        <f t="shared" si="8"/>
         <v>586.66666666666674</v>
       </c>
       <c r="M23">
-        <f>5000/150*M20</f>
+        <f t="shared" si="8"/>
         <v>686.66666666666674</v>
       </c>
       <c r="N23">
-        <f>5000/150*N20</f>
+        <f t="shared" si="8"/>
         <v>743.33333333333337</v>
       </c>
     </row>
@@ -1252,51 +1252,51 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:N24" si="8">5000/150*C21</f>
+        <f t="shared" ref="C24:N24" si="9">5000/150*C21</f>
         <v>73.333333333333343</v>
       </c>
       <c r="D24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>120.00000000000001</v>
       </c>
       <c r="E24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>153.33333333333334</v>
       </c>
       <c r="F24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>216.66666666666669</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>263.33333333333337</v>
       </c>
       <c r="H24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>360.00000000000006</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>406.66666666666669</v>
       </c>
       <c r="J24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>476.66666666666674</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>523.33333333333337</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>623.33333333333337</v>
       </c>
       <c r="M24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
       <c r="N24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>776.66666666666674</v>
       </c>
     </row>
@@ -1309,47 +1309,47 @@
         <v>32.43333333333333</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:N26" si="9">D22-D23</f>
+        <f t="shared" ref="D26:N26" si="10">D22-D23</f>
         <v>51.533333333333303</v>
       </c>
       <c r="E26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20.633333333333297</v>
       </c>
       <c r="F26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53.066666666666606</v>
       </c>
       <c r="G26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>88.833333333333314</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>127.93333333333328</v>
       </c>
       <c r="I26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>133.69999999999993</v>
       </c>
       <c r="J26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>116.13333333333321</v>
       </c>
       <c r="K26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>158.56666666666661</v>
       </c>
       <c r="L26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>204.33333333333326</v>
       </c>
       <c r="M26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>183.43333333333317</v>
       </c>
       <c r="N26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>205.86666666666656</v>
       </c>
     </row>
@@ -1362,47 +1362,47 @@
         <v>5.7666666666666515</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="D27:N27" si="10">D22-D24</f>
+        <f t="shared" ref="D27:N27" si="11">D22-D24</f>
         <v>38.199999999999974</v>
       </c>
       <c r="E27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83.96666666666664</v>
       </c>
       <c r="F27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99.733333333333292</v>
       </c>
       <c r="G27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>132.16666666666663</v>
       </c>
       <c r="H27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>114.59999999999991</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>147.03333333333325</v>
       </c>
       <c r="J27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>156.13333333333321</v>
       </c>
       <c r="K27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>188.56666666666661</v>
       </c>
       <c r="L27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>167.66666666666663</v>
       </c>
       <c r="M27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>170.09999999999991</v>
       </c>
       <c r="N27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>172.53333333333319</v>
       </c>
     </row>
@@ -1415,47 +1415,47 @@
         <v>0.41002949852507375</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29:N29" si="11">D26/D22</f>
+        <f t="shared" ref="D29:N29" si="12">D26/D22</f>
         <v>0.32574799831436985</v>
       </c>
       <c r="E29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.6950414384042551E-2</v>
       </c>
       <c r="F29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16772018541930028</v>
       </c>
       <c r="G29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22461019806152543</v>
       </c>
       <c r="H29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.26956033150723407</v>
       </c>
       <c r="I29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.24146649810366616</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.18352296670880724</v>
       </c>
       <c r="K29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22273727583462088</v>
       </c>
       <c r="L29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25832279814580689</v>
       </c>
       <c r="M29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21081867984522834</v>
       </c>
       <c r="N29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.21688439387554423</v>
       </c>
     </row>
@@ -1468,47 +1468,47 @@
         <v>7.2903497682258553E-2</v>
       </c>
       <c r="D30">
-        <f t="shared" ref="D30:N30" si="12">D27/D22</f>
+        <f t="shared" ref="D30:N30" si="13">D27/D22</f>
         <v>0.24146649810366611</v>
       </c>
       <c r="E30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35384183171793782</v>
       </c>
       <c r="F30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.31521281078803193</v>
       </c>
       <c r="G30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.33417614833544029</v>
       </c>
       <c r="H30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24146649810366608</v>
       </c>
       <c r="I30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.26554692673529579</v>
       </c>
       <c r="J30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.24673409186683506</v>
       </c>
       <c r="K30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.26487802593997278</v>
       </c>
       <c r="L30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.21196797302991988</v>
       </c>
       <c r="M30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.19549477071600957</v>
       </c>
       <c r="N30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.1817671021210843</v>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
         <v>0.2348642698937683</v>
       </c>
     </row>
-    <row r="33" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0.24378801459500984</v>
       </c>
     </row>
-    <row r="34" spans="12:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
@@ -1542,14 +1542,214 @@
         <v>0.23932614224438911</v>
       </c>
     </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f>42.46*C3+12.33-C5</f>
+        <v>30.888000000000005</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:N38" si="14">42.46*D3+12.33-D5</f>
+        <v>-18.489999999999981</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="14"/>
+        <v>93.47999999999999</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="14"/>
+        <v>99.300000000000011</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="14"/>
+        <v>62.659999999999968</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>34.512</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="14"/>
+        <v>74.300000000000068</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="14"/>
+        <v>88.61200000000008</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="14"/>
+        <v>47.726000000000113</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="14"/>
+        <v>23.823999999999955</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="14"/>
+        <v>63.61200000000008</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="14"/>
+        <v>56.694000000000074</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>42.46*C4+12.33-C5</f>
+        <v>18.150000000000006</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:N38" si="15">42.46*D4+12.33-D5</f>
+        <v>-1.5059999999999718</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="15"/>
+        <v>-38.145999999999958</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="15"/>
+        <v>-32.325999999999965</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="15"/>
+        <v>28.69199999999995</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="15"/>
+        <v>26.020000000000039</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="15"/>
+        <v>31.840000000000146</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="15"/>
+        <v>24.922000000000025</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="15"/>
+        <v>-3.2259999999999991</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
+        <v>36.562000000000012</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="15"/>
+        <v>55.120000000000118</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="15"/>
+        <v>56.694000000000074</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f>42.46*C20+12.33-C22</f>
+        <v>-7.3259999999999934</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:N39" si="16">42.46*D20+12.33-D22</f>
+        <v>-9.997999999999962</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="16"/>
+        <v>51.02000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>31.364000000000033</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="16"/>
+        <v>7.4619999999999891</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="16"/>
+        <v>-20.685999999999979</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="16"/>
+        <v>-6.37399999999991</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="16"/>
+        <v>37.660000000000082</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="16"/>
+        <v>5.2660000000001901</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="16"/>
+        <v>-31.37399999999991</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="16"/>
+        <v>16.906000000000176</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="16"/>
+        <v>9.9880000000001701</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f>42.46*C21+12.33-C22</f>
+        <v>26.64200000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:N40" si="17">42.46*D21+12.33-D22</f>
+        <v>6.9860000000000184</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="17"/>
+        <v>-29.653999999999968</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="17"/>
+        <v>-28.079999999999984</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>-47.73599999999999</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="17"/>
+        <v>-3.7019999999999413</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="17"/>
+        <v>-23.357999999999947</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="17"/>
+        <v>-13.291999999999916</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="17"/>
+        <v>-32.947999999999979</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="17"/>
+        <v>15.331999999999994</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="17"/>
+        <v>33.8900000000001</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="17"/>
+        <v>52.448000000000206</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book/Thesis/数据处理.xlsx
+++ b/Book/Thesis/数据处理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\22GDproject\Book\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28859E00-9287-42ED-89E9-0D5C326ABDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5037CEC4-3F44-4990-ABF4-D37DB7E8902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5445" windowWidth="38640" windowHeight="21120" xr2:uid="{587B6099-F4B4-44EB-8C07-549C37201833}"/>
   </bookViews>
@@ -152,6 +152,1359 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>870.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>949.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$N$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>30.888000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-18.489999999999981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.300000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.659999999999968</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.300000000000068</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.61200000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.726000000000113</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>23.823999999999955</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.61200000000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.694000000000074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A81A-440C-8F49-52EED6B56EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>870.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>949.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$38:$N$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5059999999999718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-38.145999999999958</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-32.325999999999965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.69199999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.020000000000039</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31.840000000000146</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.922000000000025</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.562000000000012</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.120000000000118</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>56.694000000000074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A81A-440C-8F49-52EED6B56EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>870.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>949.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$N$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-7.3259999999999934</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.997999999999962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.02000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.364000000000033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4619999999999891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.685999999999979</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.37399999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37.660000000000082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2660000000001901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-31.37399999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.906000000000176</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9880000000001701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A81A-440C-8F49-52EED6B56EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.29999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>395.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>474.59999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>553.69999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>632.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>711.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>870.09999999999991</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>949.19999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$40:$N$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26.64200000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9860000000000184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-29.653999999999968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-28.079999999999984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-47.73599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.7019999999999413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-23.357999999999947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.291999999999916</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-32.947999999999979</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.331999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.8900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.448000000000206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A81A-440C-8F49-52EED6B56EA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343089583"/>
+        <c:axId val="343089999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343089583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343089999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="343089999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343089583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>61912</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8500406B-5865-973C-0117-4B4BA4158651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -454,7 +1807,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+      <selection activeCell="C37" activeCellId="1" sqref="C5:N5 C37:N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1548,7 +2901,7 @@
         <v>30.888000000000005</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:N38" si="14">42.46*D3+12.33-D5</f>
+        <f t="shared" ref="D37:N37" si="14">42.46*D3+12.33-D5</f>
         <v>-18.489999999999981</v>
       </c>
       <c r="E37">
@@ -1754,5 +3107,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>